--- a/media/info_template/project_info.xlsx
+++ b/media/info_template/project_info.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9163FD3-3939-7442-ADCB-9D76FFFB65AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28360" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>项目编号（必填）</t>
   </si>
@@ -145,21 +154,12 @@
     <t>其他需要我司代收到付项目</t>
   </si>
   <si>
-    <t>发票类型</t>
-  </si>
-  <si>
     <t xml:space="preserve">发票抬头 </t>
   </si>
   <si>
-    <t>发票科目</t>
-  </si>
-  <si>
     <t>发票开具日期(2016-01-01)</t>
   </si>
   <si>
-    <t>发票邮寄地址及联系人</t>
-  </si>
-  <si>
     <t>是否一般纳税人(是/否)</t>
   </si>
   <si>
@@ -239,16 +239,57 @@
   </si>
   <si>
     <t>12月</t>
+  </si>
+  <si>
+    <t>开票方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票费用内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票科目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票费用内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票接收人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -257,17 +298,15 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -359,59 +398,109 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdd6ee"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDD6EE"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -613,7 +702,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -632,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +751,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -688,7 +777,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -714,7 +803,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -740,7 +829,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -766,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -792,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -844,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,9 +972,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -902,7 +997,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -921,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1250,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,9 +1263,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1184,7 +1285,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1203,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1441,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1454,350 +1555,363 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CB10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:JD10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.3516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.3516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.3516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.3516" style="1" customWidth="1"/>
-    <col min="19" max="19" width="8.17188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.3516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.33203125" style="1" customWidth="1"/>
+    <col min="21" max="22" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" style="1" customWidth="1"/>
-    <col min="24" max="24" width="29.3516" style="1" customWidth="1"/>
-    <col min="25" max="25" width="10.3516" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.3516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15" style="1" customWidth="1"/>
+    <col min="24" max="24" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.33203125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.6719" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6" style="1" customWidth="1"/>
-    <col min="32" max="32" width="6" style="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6719" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.3516" style="1" customWidth="1"/>
-    <col min="35" max="35" width="31.6719" style="1" customWidth="1"/>
-    <col min="36" max="36" width="15" style="1" customWidth="1"/>
-    <col min="37" max="37" width="32.3516" style="1" customWidth="1"/>
-    <col min="38" max="38" width="29.8516" style="1" customWidth="1"/>
-    <col min="39" max="39" width="29.8516" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="6" style="1" customWidth="1"/>
+    <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.6640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="15" style="1" customWidth="1"/>
-    <col min="41" max="41" width="24.3516" style="1" customWidth="1"/>
-    <col min="42" max="42" width="15" style="1" customWidth="1"/>
-    <col min="43" max="43" width="19.6719" style="1" customWidth="1"/>
-    <col min="44" max="44" width="29.1719" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10.3516" style="1" customWidth="1"/>
-    <col min="46" max="46" width="11.5" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10.3516" style="1" customWidth="1"/>
-    <col min="48" max="48" width="29.8516" style="1" customWidth="1"/>
-    <col min="49" max="49" width="24.3516" style="1" customWidth="1"/>
-    <col min="50" max="50" width="25.8516" style="1" customWidth="1"/>
-    <col min="51" max="51" width="15" style="1" customWidth="1"/>
-    <col min="52" max="52" width="9" style="1" customWidth="1"/>
-    <col min="53" max="53" width="9" style="1" customWidth="1"/>
-    <col min="54" max="54" width="9" style="1" customWidth="1"/>
-    <col min="55" max="55" width="9" style="1" customWidth="1"/>
-    <col min="56" max="56" width="9" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9" style="1" customWidth="1"/>
-    <col min="58" max="58" width="9" style="1" customWidth="1"/>
-    <col min="59" max="59" width="9" style="1" customWidth="1"/>
-    <col min="60" max="60" width="15" style="1" customWidth="1"/>
-    <col min="61" max="61" width="9" style="1" customWidth="1"/>
-    <col min="62" max="62" width="9" style="1" customWidth="1"/>
-    <col min="63" max="63" width="9" style="1" customWidth="1"/>
-    <col min="64" max="64" width="9" style="1" customWidth="1"/>
-    <col min="65" max="65" width="9" style="1" customWidth="1"/>
-    <col min="66" max="66" width="9" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.83203125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15" style="1" customWidth="1"/>
+    <col min="60" max="60" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="9" style="1" customWidth="1"/>
+    <col min="66" max="66" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="9" style="1" customWidth="1"/>
-    <col min="68" max="68" width="9" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15" style="1" customWidth="1"/>
     <col min="69" max="69" width="9" style="1" customWidth="1"/>
-    <col min="70" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="71" width="9" style="1" customWidth="1"/>
-    <col min="72" max="72" width="9" style="1" customWidth="1"/>
+    <col min="70" max="70" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="9" style="1" customWidth="1"/>
-    <col min="74" max="74" width="9" style="1" customWidth="1"/>
+    <col min="74" max="74" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="9" style="1" customWidth="1"/>
-    <col min="76" max="76" width="9" style="1" customWidth="1"/>
-    <col min="77" max="77" width="9" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9" style="1" customWidth="1"/>
-    <col min="79" max="79" width="9" style="1" customWidth="1"/>
-    <col min="80" max="80" width="9" style="1" customWidth="1"/>
-    <col min="81" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="76" max="76" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="88" width="9" style="1" customWidth="1"/>
+    <col min="89" max="264" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:88" ht="14.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="3">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="3">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="3">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="3">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="3">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="3">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="3">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="3">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="3">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="3">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="3">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="3">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s" s="3">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s" s="3">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s" s="3">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s" s="3">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s" s="3">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s" s="3">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s" s="3">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s" s="3">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s" s="3">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s" s="3">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s" s="3">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s" s="3">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s" s="3">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s" s="3">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s" s="3">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s" s="3">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s" s="3">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s" s="3">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s" s="3">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="3">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s" s="3">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s" s="3">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s" s="3">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s" s="3">
+      <c r="AT1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s" s="3">
+      <c r="BF1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s" s="3">
+      <c r="BG1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s" s="3">
+      <c r="BH1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s" s="3">
+      <c r="BI1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s" s="3">
+      <c r="BJ1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s" s="3">
+      <c r="BK1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s" s="3">
+      <c r="BL1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s" s="3">
+      <c r="BM1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s" s="3">
+      <c r="BN1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s" s="3">
+      <c r="BO1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s" s="3">
+      <c r="BP1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s" s="3">
+      <c r="BQ1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BR1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s" s="3">
+      <c r="BS1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BT1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s" s="3">
+      <c r="BU1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="BJ1" t="s" s="3">
+      <c r="BW1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="BL1" t="s" s="3">
+      <c r="BY1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN1" t="s" s="3">
+      <c r="BZ1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="BO1" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="BP1" t="s" s="3">
+      <c r="CA1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" t="s" s="3">
+      <c r="CB1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" t="s" s="3">
+      <c r="CC1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BS1" t="s" s="3">
+      <c r="CD1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BT1" t="s" s="3">
+      <c r="CE1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BU1" t="s" s="3">
+      <c r="CF1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BV1" t="s" s="3">
+      <c r="CG1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BW1" t="s" s="3">
+      <c r="CH1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BX1" t="s" s="3">
+      <c r="CI1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BY1" t="s" s="3">
+      <c r="CJ1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BZ1" t="s" s="3">
-        <v>73</v>
-      </c>
-      <c r="CA1" t="s" s="3">
-        <v>74</v>
-      </c>
-      <c r="CB1" t="s" s="4">
-        <v>75</v>
-      </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row r="2" spans="1:88" ht="16" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1878,8 +1992,16 @@
       <c r="BZ2" s="5"/>
       <c r="CA2" s="5"/>
       <c r="CB2" s="5"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row r="3" spans="1:88" ht="16" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1960,8 +2082,16 @@
       <c r="BZ3" s="6"/>
       <c r="CA3" s="6"/>
       <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="6"/>
+      <c r="CJ3" s="6"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:88" ht="16" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2042,8 +2172,16 @@
       <c r="BZ4" s="6"/>
       <c r="CA4" s="6"/>
       <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="6"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:88" ht="16" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2124,8 +2262,16 @@
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6"/>
       <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="6"/>
+      <c r="CJ5" s="6"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:88" ht="16" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2206,8 +2352,16 @@
       <c r="BZ6" s="6"/>
       <c r="CA6" s="6"/>
       <c r="CB6" s="6"/>
+      <c r="CC6" s="6"/>
+      <c r="CD6" s="6"/>
+      <c r="CE6" s="6"/>
+      <c r="CF6" s="6"/>
+      <c r="CG6" s="6"/>
+      <c r="CH6" s="6"/>
+      <c r="CI6" s="6"/>
+      <c r="CJ6" s="6"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:88" ht="16" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2288,8 +2442,16 @@
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6"/>
       <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="6"/>
+      <c r="CJ7" s="6"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:88" ht="16" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2370,8 +2532,16 @@
       <c r="BZ8" s="6"/>
       <c r="CA8" s="6"/>
       <c r="CB8" s="6"/>
+      <c r="CC8" s="6"/>
+      <c r="CD8" s="6"/>
+      <c r="CE8" s="6"/>
+      <c r="CF8" s="6"/>
+      <c r="CG8" s="6"/>
+      <c r="CH8" s="6"/>
+      <c r="CI8" s="6"/>
+      <c r="CJ8" s="6"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:88" ht="16" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2452,8 +2622,16 @@
       <c r="BZ9" s="6"/>
       <c r="CA9" s="6"/>
       <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="6"/>
+      <c r="CJ9" s="6"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:88" ht="16" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2534,10 +2712,19 @@
       <c r="BZ10" s="6"/>
       <c r="CA10" s="6"/>
       <c r="CB10" s="6"/>
+      <c r="CC10" s="6"/>
+      <c r="CD10" s="6"/>
+      <c r="CE10" s="6"/>
+      <c r="CF10" s="6"/>
+      <c r="CG10" s="6"/>
+      <c r="CH10" s="6"/>
+      <c r="CI10" s="6"/>
+      <c r="CJ10" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/media/info_template/project_info.xlsx
+++ b/media/info_template/project_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9163FD3-3939-7442-ADCB-9D76FFFB65AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3D01E-876C-E343-B35A-E95BE1B6A0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28360" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>项目编号（必填）</t>
   </si>
@@ -283,6 +283,9 @@
   <si>
     <t>快递说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发票类型</t>
   </si>
 </sst>
 </file>
@@ -1574,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JD10"/>
+  <dimension ref="A1:JE10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
@@ -1615,37 +1618,38 @@
     <col min="42" max="42" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.83203125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="15" style="1" customWidth="1"/>
-    <col min="60" max="60" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="65" width="9" style="1" customWidth="1"/>
-    <col min="66" max="66" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9" style="1" customWidth="1"/>
-    <col min="68" max="68" width="15" style="1" customWidth="1"/>
-    <col min="69" max="69" width="9" style="1" customWidth="1"/>
-    <col min="70" max="70" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9" style="1" customWidth="1"/>
-    <col min="74" max="74" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9" style="1" customWidth="1"/>
-    <col min="76" max="76" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="88" width="9" style="1" customWidth="1"/>
-    <col min="89" max="264" width="8.83203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="11.5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.33203125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="29.83203125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15" style="1" customWidth="1"/>
+    <col min="61" max="61" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="66" width="9" style="1" customWidth="1"/>
+    <col min="67" max="67" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9" style="1" customWidth="1"/>
+    <col min="69" max="69" width="15" style="1" customWidth="1"/>
+    <col min="70" max="70" width="9" style="1" customWidth="1"/>
+    <col min="71" max="71" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9" style="1" customWidth="1"/>
+    <col min="75" max="75" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="9" style="1" customWidth="1"/>
+    <col min="77" max="77" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="89" width="9" style="1" customWidth="1"/>
+    <col min="90" max="265" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="14.25" customHeight="1">
+    <row r="1" spans="1:89" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1779,139 +1783,142 @@
         <v>43</v>
       </c>
       <c r="AS1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CK1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="16" customHeight="1">
+    <row r="2" spans="1:89" ht="16" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2000,8 +2007,9 @@
       <c r="CH2" s="5"/>
       <c r="CI2" s="5"/>
       <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
     </row>
-    <row r="3" spans="1:88" ht="16" customHeight="1">
+    <row r="3" spans="1:89" ht="16" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2090,8 +2098,9 @@
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
       <c r="CJ3" s="6"/>
+      <c r="CK3" s="6"/>
     </row>
-    <row r="4" spans="1:88" ht="16" customHeight="1">
+    <row r="4" spans="1:89" ht="16" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2180,8 +2189,9 @@
       <c r="CH4" s="6"/>
       <c r="CI4" s="6"/>
       <c r="CJ4" s="6"/>
+      <c r="CK4" s="6"/>
     </row>
-    <row r="5" spans="1:88" ht="16" customHeight="1">
+    <row r="5" spans="1:89" ht="16" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2270,8 +2280,9 @@
       <c r="CH5" s="6"/>
       <c r="CI5" s="6"/>
       <c r="CJ5" s="6"/>
+      <c r="CK5" s="6"/>
     </row>
-    <row r="6" spans="1:88" ht="16" customHeight="1">
+    <row r="6" spans="1:89" ht="16" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2360,8 +2371,9 @@
       <c r="CH6" s="6"/>
       <c r="CI6" s="6"/>
       <c r="CJ6" s="6"/>
+      <c r="CK6" s="6"/>
     </row>
-    <row r="7" spans="1:88" ht="16" customHeight="1">
+    <row r="7" spans="1:89" ht="16" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2450,8 +2462,9 @@
       <c r="CH7" s="6"/>
       <c r="CI7" s="6"/>
       <c r="CJ7" s="6"/>
+      <c r="CK7" s="6"/>
     </row>
-    <row r="8" spans="1:88" ht="16" customHeight="1">
+    <row r="8" spans="1:89" ht="16" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2540,8 +2553,9 @@
       <c r="CH8" s="6"/>
       <c r="CI8" s="6"/>
       <c r="CJ8" s="6"/>
+      <c r="CK8" s="6"/>
     </row>
-    <row r="9" spans="1:88" ht="16" customHeight="1">
+    <row r="9" spans="1:89" ht="16" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2630,8 +2644,9 @@
       <c r="CH9" s="6"/>
       <c r="CI9" s="6"/>
       <c r="CJ9" s="6"/>
+      <c r="CK9" s="6"/>
     </row>
-    <row r="10" spans="1:88" ht="16" customHeight="1">
+    <row r="10" spans="1:89" ht="16" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2720,6 +2735,7 @@
       <c r="CH10" s="6"/>
       <c r="CI10" s="6"/>
       <c r="CJ10" s="6"/>
+      <c r="CK10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/media/info_template/project_info.xlsx
+++ b/media/info_template/project_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhuiliang/PycharmProjects/ace_office/media/info_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C3D01E-876C-E343-B35A-E95BE1B6A0EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138959B-826D-9649-A577-63BFA89B9013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28360" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>项目编号（必填）</t>
   </si>
@@ -283,9 +283,6 @@
   <si>
     <t>快递说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票类型</t>
   </si>
 </sst>
 </file>
@@ -1577,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:JE10"/>
+  <dimension ref="A1:JD10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+      <selection activeCell="CG20" sqref="CG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1"/>
@@ -1618,38 +1615,37 @@
     <col min="42" max="42" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="27.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="27.5" style="1" customWidth="1"/>
-    <col min="46" max="46" width="11.5" style="1" customWidth="1"/>
-    <col min="47" max="47" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.33203125" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="29.83203125" style="1" customWidth="1"/>
-    <col min="59" max="59" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15" style="1" customWidth="1"/>
-    <col min="61" max="61" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="66" width="9" style="1" customWidth="1"/>
-    <col min="67" max="67" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9" style="1" customWidth="1"/>
-    <col min="69" max="69" width="15" style="1" customWidth="1"/>
-    <col min="70" max="70" width="9" style="1" customWidth="1"/>
-    <col min="71" max="71" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9" style="1" customWidth="1"/>
-    <col min="75" max="75" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9" style="1" customWidth="1"/>
-    <col min="77" max="77" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="89" width="9" style="1" customWidth="1"/>
-    <col min="90" max="265" width="8.83203125" style="1" customWidth="1"/>
+    <col min="45" max="45" width="11.5" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.33203125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="29.83203125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="15" style="1" customWidth="1"/>
+    <col min="60" max="60" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="65" width="9" style="1" customWidth="1"/>
+    <col min="66" max="66" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9" style="1" customWidth="1"/>
+    <col min="68" max="68" width="15" style="1" customWidth="1"/>
+    <col min="69" max="69" width="9" style="1" customWidth="1"/>
+    <col min="70" max="70" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9" style="1" customWidth="1"/>
+    <col min="74" max="74" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9" style="1" customWidth="1"/>
+    <col min="76" max="76" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="88" width="9" style="1" customWidth="1"/>
+    <col min="89" max="264" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="14.25" customHeight="1">
+    <row r="1" spans="1:88" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1783,142 +1779,139 @@
         <v>43</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="AU1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AV1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BB1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BC1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BL1" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BM1" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BN1" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BO1" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BP1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BQ1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="BR1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BS1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="BT1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="BV1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="BW1" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="BX1" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="CC1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="CD1" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CE1" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CF1" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CG1" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CH1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="CI1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:89" ht="16" customHeight="1">
+    <row r="2" spans="1:88" ht="16" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2007,9 +2000,8 @@
       <c r="CH2" s="5"/>
       <c r="CI2" s="5"/>
       <c r="CJ2" s="5"/>
-      <c r="CK2" s="5"/>
     </row>
-    <row r="3" spans="1:89" ht="16" customHeight="1">
+    <row r="3" spans="1:88" ht="16" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2098,9 +2090,8 @@
       <c r="CH3" s="6"/>
       <c r="CI3" s="6"/>
       <c r="CJ3" s="6"/>
-      <c r="CK3" s="6"/>
     </row>
-    <row r="4" spans="1:89" ht="16" customHeight="1">
+    <row r="4" spans="1:88" ht="16" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2189,9 +2180,8 @@
       <c r="CH4" s="6"/>
       <c r="CI4" s="6"/>
       <c r="CJ4" s="6"/>
-      <c r="CK4" s="6"/>
     </row>
-    <row r="5" spans="1:89" ht="16" customHeight="1">
+    <row r="5" spans="1:88" ht="16" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2280,9 +2270,8 @@
       <c r="CH5" s="6"/>
       <c r="CI5" s="6"/>
       <c r="CJ5" s="6"/>
-      <c r="CK5" s="6"/>
     </row>
-    <row r="6" spans="1:89" ht="16" customHeight="1">
+    <row r="6" spans="1:88" ht="16" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2371,9 +2360,8 @@
       <c r="CH6" s="6"/>
       <c r="CI6" s="6"/>
       <c r="CJ6" s="6"/>
-      <c r="CK6" s="6"/>
     </row>
-    <row r="7" spans="1:89" ht="16" customHeight="1">
+    <row r="7" spans="1:88" ht="16" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2462,9 +2450,8 @@
       <c r="CH7" s="6"/>
       <c r="CI7" s="6"/>
       <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
     </row>
-    <row r="8" spans="1:89" ht="16" customHeight="1">
+    <row r="8" spans="1:88" ht="16" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2553,9 +2540,8 @@
       <c r="CH8" s="6"/>
       <c r="CI8" s="6"/>
       <c r="CJ8" s="6"/>
-      <c r="CK8" s="6"/>
     </row>
-    <row r="9" spans="1:89" ht="16" customHeight="1">
+    <row r="9" spans="1:88" ht="16" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2644,9 +2630,8 @@
       <c r="CH9" s="6"/>
       <c r="CI9" s="6"/>
       <c r="CJ9" s="6"/>
-      <c r="CK9" s="6"/>
     </row>
-    <row r="10" spans="1:89" ht="16" customHeight="1">
+    <row r="10" spans="1:88" ht="16" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2735,7 +2720,6 @@
       <c r="CH10" s="6"/>
       <c r="CI10" s="6"/>
       <c r="CJ10" s="6"/>
-      <c r="CK10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
